--- a/Overall Stats/Willard/Willard Report.xlsx
+++ b/Overall Stats/Willard/Willard Report.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Willard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F0C10-5377-42D8-8575-2A80E0BD74AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D274F5-6FEE-4476-8516-4821284DA30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{AE8D5F39-7595-4FC6-A891-11E1A93D88B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AE8D5F39-7595-4FC6-A891-11E1A93D88B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="3" r:id="rId2"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -81,12 +82,30 @@
   <si>
     <t>Slow</t>
   </si>
+  <si>
+    <t>Month/Day</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Willard</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>1 Crappie</t>
+  </si>
+  <si>
+    <t>Crappie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +138,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -192,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,17 +217,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,11 +244,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,13 +487,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>C. Catfish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Crappie</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>SM. Bass</c:v>
                 </c:pt>
               </c:strCache>
@@ -482,14 +504,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$B$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -858,15 +883,61 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>C. Catfish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Crappie</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>SM. Bass</c:v>
                 </c:pt>
               </c:strCache>
@@ -874,15 +945,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$B$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,7 +2569,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,20 +2593,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2544,15 +2618,15 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6">
@@ -2573,7 +2647,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6"/>
@@ -2586,33 +2660,33 @@
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>SUM(D4:D5)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
       <c r="F7" s="6">
@@ -2625,19 +2699,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>AVERAGE(D4:D5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2652,102 +2726,269 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE7405-D35D-40BA-960D-7EDFE6E4F7AD}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF88079-A3CC-4AFA-9D63-17A6DF3314C1}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
+        <f>SUM(C4)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <f>AVERAGE(C4)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <f>SUM(E4/C5*100)</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE7405-D35D-40BA-960D-7EDFE6E4F7AD}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <f>SUM('2018'!F4)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
+        <f>SUM('2020'!E4)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <f>SUM('2018'!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="19">
         <f>SUM(A3/$B$8*100)</f>
-        <v>50</v>
-      </c>
-      <c r="B6" s="6">
-        <f>SUM(B3/$B$8*100)</f>
-        <v>50</v>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="B6" s="19">
+        <f t="shared" ref="B6:C6" si="0">SUM(B3/$B$8*100)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="C6" s="19">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11">
-        <f>SUM('2018'!D6)</f>
-        <v>2</v>
+      <c r="B8" s="10">
+        <f>SUM('2018'!D6+'2020'!C5)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11">
-        <v>2</v>
+      <c r="B9" s="10">
+        <f>SUM('2018'!D7+'2020'!C6)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>SUM(B8/B9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Overall Stats/Willard/Willard Report.xlsx
+++ b/Overall Stats/Willard/Willard Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Willard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D274F5-6FEE-4476-8516-4821284DA30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84625049-05DF-434E-B6E4-81C20ADECD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AE8D5F39-7595-4FC6-A891-11E1A93D88B1}"/>
+    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AE8D5F39-7595-4FC6-A891-11E1A93D88B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -235,6 +235,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,13 +249,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,6 +925,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-74E4-4FF8-9F88-BDAD6EC6AC4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2593,20 +2598,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2660,12 +2665,12 @@
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2746,10 +2751,10 @@
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
@@ -2757,7 +2762,7 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2766,17 +2771,17 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2826,12 +2831,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2892,12 +2897,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2925,12 +2930,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2944,15 +2949,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <f>SUM(A3/$B$8*100)</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <f t="shared" ref="B6:C6" si="0">SUM(B3/$B$8*100)</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>

--- a/Overall Stats/Willard/Willard Report.xlsx
+++ b/Overall Stats/Willard/Willard Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Willard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84625049-05DF-434E-B6E4-81C20ADECD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D71D93-63AE-4390-A709-151DC16BDCE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AE8D5F39-7595-4FC6-A891-11E1A93D88B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AE8D5F39-7595-4FC6-A891-11E1A93D88B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -2734,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF88079-A3CC-4AFA-9D63-17A6DF3314C1}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2885,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE7405-D35D-40BA-960D-7EDFE6E4F7AD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
